--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H2">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I2">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J2">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>153.404529776404</v>
+        <v>2.146472706961833</v>
       </c>
       <c r="R2">
-        <v>613.6181191056158</v>
+        <v>12.878836241771</v>
       </c>
       <c r="S2">
-        <v>0.2487571684597294</v>
+        <v>0.006432535967304642</v>
       </c>
       <c r="T2">
-        <v>0.1833462475003562</v>
+        <v>0.007158995863878653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H3">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I3">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J3">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>227.8838821782273</v>
+        <v>5.467576203775778</v>
       </c>
       <c r="R3">
-        <v>1367.303293069364</v>
+        <v>49.208185833982</v>
       </c>
       <c r="S3">
-        <v>0.3695311302142911</v>
+        <v>0.01638519813026071</v>
       </c>
       <c r="T3">
-        <v>0.4085438812408977</v>
+        <v>0.02735349625083876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H4">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I4">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J4">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>22.14971854854834</v>
+        <v>0.710985149931</v>
       </c>
       <c r="R4">
-        <v>132.89831129129</v>
+        <v>6.398866349378999</v>
       </c>
       <c r="S4">
-        <v>0.03591746134451071</v>
+        <v>0.002130675845221433</v>
       </c>
       <c r="T4">
-        <v>0.03970939891720881</v>
+        <v>0.00355695630169898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H5">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I5">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J5">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>63.7406872861745</v>
+        <v>1.5030582556075</v>
       </c>
       <c r="R5">
-        <v>254.962749144698</v>
+        <v>9.018349533644999</v>
       </c>
       <c r="S5">
-        <v>0.1033603956030296</v>
+        <v>0.004504355568459289</v>
       </c>
       <c r="T5">
-        <v>0.07618168670799802</v>
+        <v>0.005013055977913297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H6">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I6">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J6">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>75.51547768190368</v>
+        <v>0.1443364853053334</v>
       </c>
       <c r="R6">
-        <v>453.092866091422</v>
+        <v>1.299028367748</v>
       </c>
       <c r="S6">
-        <v>0.1224541180786154</v>
+        <v>0.0004325466753476888</v>
       </c>
       <c r="T6">
-        <v>0.1353820465538521</v>
+        <v>0.0007220946471550245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.767793</v>
+        <v>0.04241433333333333</v>
       </c>
       <c r="H7">
-        <v>3.535586</v>
+        <v>0.127243</v>
       </c>
       <c r="I7">
-        <v>0.9295543505923973</v>
+        <v>0.03157971673979624</v>
       </c>
       <c r="J7">
-        <v>0.8979268312195127</v>
+        <v>0.04663324281038925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>30.546865525966</v>
+        <v>0.5654057974159999</v>
       </c>
       <c r="R7">
-        <v>183.281193155796</v>
+        <v>5.088652176744</v>
       </c>
       <c r="S7">
-        <v>0.04953407689222117</v>
+        <v>0.00169440455320248</v>
       </c>
       <c r="T7">
-        <v>0.05476357029919984</v>
+        <v>0.002828643768904533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H8">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I8">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J8">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>11.625658806588</v>
+        <v>65.82350703186475</v>
       </c>
       <c r="R8">
-        <v>69.753952839528</v>
+        <v>263.294028127459</v>
       </c>
       <c r="S8">
-        <v>0.01885189420691134</v>
+        <v>0.1972594736952921</v>
       </c>
       <c r="T8">
-        <v>0.02084215752964592</v>
+        <v>0.1463580111559233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H9">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I9">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J9">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
-        <v>17.270026286618</v>
+        <v>167.6681187369464</v>
       </c>
       <c r="R9">
-        <v>155.430236579562</v>
+        <v>1006.008712421678</v>
       </c>
       <c r="S9">
-        <v>0.02800466742765629</v>
+        <v>0.5024667683160485</v>
       </c>
       <c r="T9">
-        <v>0.04644183367090291</v>
+        <v>0.5592129658341177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H10">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I10">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J10">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>1.678601478605</v>
+        <v>21.8029960801485</v>
       </c>
       <c r="R10">
-        <v>15.107413307445</v>
+        <v>130.817976480891</v>
       </c>
       <c r="S10">
-        <v>0.002721980579052776</v>
+        <v>0.06533908212560896</v>
       </c>
       <c r="T10">
-        <v>0.004514025015092871</v>
+        <v>0.07271816606458301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H11">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I11">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J11">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>4.8305449882515</v>
+        <v>46.09262691130125</v>
       </c>
       <c r="R11">
-        <v>28.983269929509</v>
+        <v>184.370507645205</v>
       </c>
       <c r="S11">
-        <v>0.007833097856668442</v>
+        <v>0.1381300957020606</v>
       </c>
       <c r="T11">
-        <v>0.008660066605612651</v>
+        <v>0.1024865660898975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H12">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I12">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J12">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>5.722889535439001</v>
+        <v>4.426207528582</v>
       </c>
       <c r="R12">
-        <v>51.506005818951</v>
+        <v>26.557245171492</v>
       </c>
       <c r="S12">
-        <v>0.00928010273437568</v>
+        <v>0.01326443100534824</v>
       </c>
       <c r="T12">
-        <v>0.01538975560956468</v>
+        <v>0.01476245250499266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.133971</v>
+        <v>1.3006735</v>
       </c>
       <c r="H13">
-        <v>0.401913</v>
+        <v>2.601347</v>
       </c>
       <c r="I13">
-        <v>0.07044564940760263</v>
+        <v>0.9684202832602038</v>
       </c>
       <c r="J13">
-        <v>0.1020731687804873</v>
+        <v>0.9533667571896107</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>2.314973597802001</v>
+        <v>17.338674915996</v>
       </c>
       <c r="R13">
-        <v>20.834762380218</v>
+        <v>104.032049495976</v>
       </c>
       <c r="S13">
-        <v>0.003753906602938106</v>
+        <v>0.05196043241584541</v>
       </c>
       <c r="T13">
-        <v>0.006225330349668289</v>
+        <v>0.0578285955400965</v>
       </c>
     </row>
   </sheetData>
